--- a/EL_Electrical/Commande-janvier.xlsx
+++ b/EL_Electrical/Commande-janvier.xlsx
@@ -15,7 +15,7 @@
     <sheet name="RS Component" sheetId="1" r:id="rId1"/>
     <sheet name="Farnell" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="239">
   <si>
     <t>Description</t>
   </si>
@@ -46,19 +46,785 @@
   </si>
   <si>
     <t>Composant/Pièce</t>
+  </si>
+  <si>
+    <t>120Ω, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 120 ohm, Série MC, 150 V, Couche épaisse</t>
+  </si>
+  <si>
+    <t>MULTICOMP PRO</t>
+  </si>
+  <si>
+    <t>MC01W08055120R</t>
+  </si>
+  <si>
+    <t>330Ω, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 330 ohm, Série MC, 150 V, Couche épaisse</t>
+  </si>
+  <si>
+    <t>MC01W08051330R</t>
+  </si>
+  <si>
+    <t>1kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 1 kohm, Série MC, 150 V, Couche épaisse</t>
+  </si>
+  <si>
+    <t>MC01W080551K</t>
+  </si>
+  <si>
+    <t>2.2kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 2.2 kohm, Série MC, 150 V</t>
+  </si>
+  <si>
+    <t>MC01W080512K2</t>
+  </si>
+  <si>
+    <t>4.7kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 4.7 kohm, Série ERJ6E, 150 V</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>6.8kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 6.8 kohm, Série MCWR, 150 V</t>
+  </si>
+  <si>
+    <t>MCWR08X6801FTL</t>
+  </si>
+  <si>
+    <t>10kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, 0805 [2012 Metric], 10 kohm, CRGCQ Series, 150 V, Couche épaisse, 125 mW</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>CRGCQ0805J10K</t>
+  </si>
+  <si>
+    <r>
+      <t>12k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri1"/>
+      </rPr>
+      <t>Ω  R-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri1"/>
+      </rPr>
+      <t>EU_R0805</t>
+    </r>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 12 kohm, Série MCWR, 150 V</t>
+  </si>
+  <si>
+    <t>MCWR08X1202FTL</t>
+  </si>
+  <si>
+    <t>18kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 18 kohm, Série MCWR, 150 V</t>
+  </si>
+  <si>
+    <t>MCWR08X1802FTL</t>
+  </si>
+  <si>
+    <t>100kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>Résistance à puce CMS, Couche épaisse, 0805 [2012 Metric], 100 kohm, Série MCWR, 150 V</t>
+  </si>
+  <si>
+    <t>MCWR08X1003FTL</t>
+  </si>
+  <si>
+    <t>27pF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, 27 pF, 50 V, 0805 [2012 Metric], ± 5%, C0G / NP0, Série MC</t>
+  </si>
+  <si>
+    <t>MC0805N270J500CT</t>
+  </si>
+  <si>
+    <t>10nF C-EUC0805</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, 10000 pF, 100 V, 0805 [2012 Metric], ± 10%, X7R</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>08051C103KAT2A</t>
+  </si>
+  <si>
+    <t>100nF, cms, package C0603</t>
+  </si>
+  <si>
+    <t>0,1µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, 0.1 µF, 50 V, 0805 [2012 Metric], ± 5%, X7R, Série C KEMET</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C104J5RACTU</t>
+  </si>
+  <si>
+    <t>0.33µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, ESD, 0.33 µF, 50 V, 0805 [2012 Metric], ± 10%, X7R</t>
+  </si>
+  <si>
+    <t>C0805C334K5RECTU</t>
+  </si>
+  <si>
+    <t>1µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, 1 µF, 50 V, 0805 [2012 Metric], ± 10%, X5R, C Series TDK</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C2012X5R1H105K085AB</t>
+  </si>
+  <si>
+    <t>2.2µF C-EUC0805</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, 2.2 µF, 16 V, 0805 [2012 Metric], +80%, -20%, Y5V, Série MC</t>
+  </si>
+  <si>
+    <t>MC0805F225Z160CT</t>
+  </si>
+  <si>
+    <t>10µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, 10 µF, 25 V, 0805 [2012 Metric], ± 10%, X5R, Série C KEMET</t>
+  </si>
+  <si>
+    <t>C0805C106K3PACTU</t>
+  </si>
+  <si>
+    <t>150µF CPOL-EU153CLV-0605</t>
+  </si>
+  <si>
+    <t>Condensateur électrolytique alu CMS, Radial - CMS, 150 µF, 35 V, 0.16 ohm, Série FT</t>
+  </si>
+  <si>
+    <t>EEEFTV151XAP</t>
+  </si>
+  <si>
+    <t>1000µF, package E25-10</t>
+  </si>
+  <si>
+    <t>Condensateur électrolytique, 1000 µF, 16 V, 021 ASM Series, ± 20%, À sorties axiales, 10 mm</t>
+  </si>
+  <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>MAL202190518E3</t>
+  </si>
+  <si>
+    <t>diode 1N4004 DO41-10</t>
+  </si>
+  <si>
+    <t>1N4007G+ -  Diode de récupération standard, 1 kV, 1 A, Une, 1 V, 30 A</t>
+  </si>
+  <si>
+    <t>1N4007G+</t>
+  </si>
+  <si>
+    <t>Connecteur 2 entrées, package 6410-02 (Traversant)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, Broche carrée, 2.54 mm, 2 Contact(s), Embase, Série KK 6410, Traversant</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>22-27-2021</t>
+  </si>
+  <si>
+    <t>Connecteur 2 entrées, package 6410-02 (Sertissage)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, 2.54 mm, 2 Contact(s), Embase, Série KK, Sertissage, 1 Rangée(s)</t>
+  </si>
+  <si>
+    <t>22-01-2027</t>
+  </si>
+  <si>
+    <t>3 entrées, package 6410-03 (Traversant)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, Broche carrée, 2.54 mm, 3 Contact(s), Embase, Série KK 6410, Traversant</t>
+  </si>
+  <si>
+    <t>22-27-2031</t>
+  </si>
+  <si>
+    <t>3 entrées, package 6410-03 (Sertissage)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, 2.54 mm, 3 Contact(s), Embase, Série KK, Sertissage, 1 Rangée(s)</t>
+  </si>
+  <si>
+    <t>22-01-2037</t>
+  </si>
+  <si>
+    <t>6 entrées, package 6410-06 (Traversant)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, Broche carrée, 2.54 mm, 6 Contact(s), Embase, Série KK 6410, Traversant</t>
+  </si>
+  <si>
+    <t>22-27-2061</t>
+  </si>
+  <si>
+    <t>6 entrées, package 6410-06  (Sertissage)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, 2.54 mm, 6 Contact(s), Embase, Série KK, Sertissage, 1 Rangée(s)</t>
+  </si>
+  <si>
+    <t>22-01-2067</t>
+  </si>
+  <si>
+    <t>7 entrées, package 6410-07 (Traversant)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, 2.54 mm, 7 Contact(s), Embase, Série KK 6410, Traversant, 1 Rangée(s)</t>
+  </si>
+  <si>
+    <t>22-27-2071</t>
+  </si>
+  <si>
+    <t>7 entrées, package 6410-07  (Sertissage)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, 2.54 mm, 7 Contact(s), Embase, KK 254 2695 Series, Sertissage, 1 Rangée(s)</t>
+  </si>
+  <si>
+    <t>22-01-2071</t>
+  </si>
+  <si>
+    <t>Connecteur 9 entrées, package 6410-09 (Traversant)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, 2.54 mm, 9 Contact(s), Embase, KK 254 6410 Series, Traversant, 1 Rangée(s)</t>
+  </si>
+  <si>
+    <t>22-27-2091</t>
+  </si>
+  <si>
+    <t>Connecteur 9 entrées, package 6410-09  (Sertissage)</t>
+  </si>
+  <si>
+    <t>Connecteur fil-à-carte, 2.54 mm, 9 Contact(s), Embase, KK 254 2695 Series, Sertissage, 1 Rangée(s)</t>
+  </si>
+  <si>
+    <t>22-01-2091</t>
+  </si>
+  <si>
+    <t>Connecteur usb boite</t>
+  </si>
+  <si>
+    <t>NPN 2N2369  TO18 – PMBT3904</t>
+  </si>
+  <si>
+    <t>PMBT3904,215 -  Transistor simple bipolaire (BJT), Commutation, NPN, 40 V, 300 MHz, 250 mW, 200 mA, 100 hFE</t>
+  </si>
+  <si>
+    <t>NEXPERIA</t>
+  </si>
+  <si>
+    <t>PMBT3904,215</t>
+  </si>
+  <si>
+    <t>NE555  DIL-08</t>
+  </si>
+  <si>
+    <t>LM555CM -  Timer, Oscillateur, Générateur d'impulsion, Compatible TTL, Astable, Monostable, 4.5 V à 16 V SOIC-8</t>
+  </si>
+  <si>
+    <t>ON SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>LM555CM</t>
+  </si>
+  <si>
+    <t>Inv gate TC4S584F _ 74AHC1G04DBV SOT23-5</t>
+  </si>
+  <si>
+    <t>Jumper package JP2</t>
+  </si>
+  <si>
+    <t>Low-dropout linear regulator 5V  -LM1117IMPX-5.0, package linear SOT223</t>
+  </si>
+  <si>
+    <t>LM1117IMPX-5.0/NOPB -  Régulateur LDO Tension fixe, entrée 15V, Dropout 1.2V, Sortie 5V/800mA, SOT-223-3</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>LM1117IMPX-5.0/NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> packageHC-49-SLF, Crystal 16MHz, 30ppm, 2-Pin</t>
+  </si>
+  <si>
+    <t>Cristal, 16 MHz, Traversant, 11.35mm x 4.65mm, 50 ppm, 18 pF, 30 ppm, Série CA</t>
+  </si>
+  <si>
+    <t>AKER</t>
+  </si>
+  <si>
+    <t>CA-16.000-18-3050-X</t>
+  </si>
+  <si>
+    <t>PH 1x1, package 1X01</t>
+  </si>
+  <si>
+    <t>PH1-40-UA -  Break-away 2.54mm 40-pin strip male header</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>PH1-40-UA</t>
+  </si>
+  <si>
+    <t>Switch-pushbutton, package TACT_PANA-EVQ</t>
+  </si>
+  <si>
+    <t>Commutateur tactile, EVQPJ Series, A déclencheur supérieur, Traversant, Bouton rectangulaire</t>
+  </si>
+  <si>
+    <t>EVQPJJ04T</t>
+  </si>
+  <si>
+    <t>MCP2515-I_SO, package SOIC127P1030X265-18N</t>
+  </si>
+  <si>
+    <t>MCP2515-I/SO -  Bus CAN, Contrôleur, SPI, 3, 2, 2.7 V, 5.5 V, SOIC</t>
+  </si>
+  <si>
+    <t>MICROCHIP</t>
+  </si>
+  <si>
+    <t>MCP2515-I/SO</t>
+  </si>
+  <si>
+    <t>Prolongateur 22 -16 AWG</t>
+  </si>
+  <si>
+    <t>Prolongateur, Série SOLISTRAND, 22 AWG, 16 AWG, 1.65 mm², Non-isolé</t>
+  </si>
+  <si>
+    <t>AMP - TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>Prolongateur 26-22 AWG</t>
+  </si>
+  <si>
+    <t>Prolongateur, Série SOLISTRAND, 26 AWG, 22 AWG, 0.41 mm², Non-isolé</t>
+  </si>
+  <si>
+    <t>Pin DTA 20 AWG max</t>
+  </si>
+  <si>
+    <t>Contact de puissance rectangulaire, Série Super Seal, Contacts plaqués or, Alliage de cuivre</t>
+  </si>
+  <si>
+    <t>3-1447221-4</t>
+  </si>
+  <si>
+    <t>Pin DTA 22 AWG max</t>
+  </si>
+  <si>
+    <t>Carte micro SD</t>
+  </si>
+  <si>
+    <t>TS4GUSDHC10 -  Carte Mémoire Flash, MicroSDHC, Classe 10, 4 Go</t>
+  </si>
+  <si>
+    <t>TRANSCEND</t>
+  </si>
+  <si>
+    <t>TS4GUSDHC10</t>
+  </si>
+  <si>
+    <t>Pointe fer à souder moins fine</t>
+  </si>
+  <si>
+    <t>LT S -  Panne de fer à souder, Conique, Long, 0.4 mm</t>
+  </si>
+  <si>
+    <t>WELLER</t>
+  </si>
+  <si>
+    <t>LT S</t>
+  </si>
+  <si>
+    <t>Pointe fer à souder fine</t>
+  </si>
+  <si>
+    <t>LT 1S -  Panne de fer à souder, Rond, 0.2 mm</t>
+  </si>
+  <si>
+    <t>LT 1S</t>
+  </si>
+  <si>
+    <t>Gaine thermo autocolante 3mm</t>
+  </si>
+  <si>
+    <t>Gaine thermo autocolante 4mm</t>
+  </si>
+  <si>
+    <t>Gaine thermorétractable avec adhésif, Mur double, résistance à l'humidité, 4:1, 0.63 ", 16 mm, Noir</t>
+  </si>
+  <si>
+    <t>RAYCHEM - TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>HTAT-16/4-0-STK</t>
+  </si>
+  <si>
+    <t>Embase pour attache de câble autoadhésive Noir 28mm x 28 mm  (supports à coller pour faisceau)</t>
+  </si>
+  <si>
+    <t>Embase pour attache de câble autoadhésive Noir 28mm x 28 mm</t>
+  </si>
+  <si>
+    <t>151-01527 FMB4APT-I-PA66HS-BK</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w08055120r/res-couche-epaisse-120r-5-0-1w/dp/9333819</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w08051330r/res-couche-epaisse-330r-1-0-1w/dp/9333037</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w080551k/res-couche-epaisse-1k-5-0-1w-0805/dp/9333711</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w080512k2/res-couche-epaisse-2-2k-1-0-1w/dp/9332812</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mcwr08x6801ftl/res-couche-epaisse-6-8k-1-0-125w/dp/2447711?st=R%C3%A9sistance%20%C3%A0%20puce%20CMS,%20Couche%20%C3%A9paisse,%200805%20[2012%20Metric],%206.8%20kohm</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/te-connectivity/crgcq0805j10k/res-aec-q200-couche-epaisse-10k/dp/2861913?st=R%C3%A9sistance%20%C3%A0%20puce%20CMS,%20Couche%20%C3%A9paisse,%200805%20[2012%20Metric],%2010%20kohm</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mcwr08x1202ftl/res-couche-epaisse-12k-1-0-125w/dp/2447563?st=R%C3%A9sistance%20%C3%A0%20puce%20CMS,%20Couche%20%C3%A9paisse,%200805%20[2012%20Metric],%2012%20kohm</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mcwr08x1802ftl/resistance-thick-film-18kohm-1/dp/2447584?st=R%C3%A9sistance%20%C3%A0%20puce%20CMS,%20Couche%20%C3%A9paisse,%200805%20[2012%20Metric],%2018%20kohm</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mcwr08x1003ftl/res-couche-epaisse-100k-1-0-125w/dp/2447551?st=R%C3%A9sistance%20%C3%A0%20puce%20CMS,%20Couche%20%C3%A9paisse,%200805%20[2012%20Metric],%20100%20kohm</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc0805n270j500ct/cond-27pf-50v-5-c0g-np0-0805/dp/1759196?st=CMS%200805%2027%20pF</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/avx/08051c103kat2a/cond-0-01-f-100v-10-x7r-0805/dp/1658874?st=CMS%200805%2010%20nF</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/kemet/c0805c104j5ractu/condensateur-0-1-f-50v-5-x7r-0805/dp/1414663?st=CMS%200805%20100%20nF</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/kemet/c0805c334k5rectu/condensateur-0-33uf-50v-mlcc-0805/dp/2991367?st=CMS%200805%200.33%20uF</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/tdk/c2012x5r1h105k085ab/condensateur-1-f-50v-10-x5r-0805/dp/2525138?st=CMS%200805%201%20uF</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc0805f225z160ct/condensateur-2-2-f-16v-y5v-0805/dp/1759424?st=CMS%200805%202.2%20uF</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/kemet/c0805c106k3pactu/condensateur-10-f-25v-10-x5r-0805/dp/2491176?st=condensateur%2010uF</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/panasonic/eeeftv151xap/condensateur-150-f-35v-radial/dp/1868418</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/vishay/mal202190518e3/condensateur-1000-f-16v-20/dp/2778020</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/1n4007g/diode-simple-1kv-1a-do-204al/dp/2675047?st=1N4007</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-27-2021/connect-header-2-voies-1-rangee/dp/9731148?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%202Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-01-2027/connecteur-fem-2-voies-1-rangee/dp/1654528</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-27-2031/connect-header-3-voies-1-rangee/dp/9731156?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%203%20Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-01-2037/connecteur-fem-3-voies-1-rangee/dp/1462834?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%203%20Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-27-2061/conn-header-6-voies-1-rang-2-54mm/dp/9731172?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%20%206%20Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-01-2067/connecteur-fem-6-voies-1-rangee/dp/1756789?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%20%206%20Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-27-2071/connect-header-7-voies-1-rangee/dp/2112410?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%207Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-01-2071/connecteur-fem-7-voies-1-rangee/dp/3221737?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%207Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-27-2091/connect-header-9-voies-1-rang/dp/2888923?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%209Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/molex/22-01-2091/conn-wtb-fem-9-voies-1-rangee/dp/3048945?st=Connecteur%20fil-%C3%A0-carte,%202.54%20mm,%209Contact(s),%20Embase,%20S%C3%A9rie%20KK</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/nexperia/pmbt3904-215/transistor-npn-sot-23/dp/1081476?st=PMBT3904&amp;fbclid=IwAR2gVbxKO46LiIBVbr8lOs_AKxUBbK69qb8qtUm5unLveARRYxxZ_KCzoVs</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/on-semiconductor/lm555cm/timer-simple-16v-nsoic-8/dp/2454496?st=lm555</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/inverseurs/1445204/</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/texas-instruments/lm1117impx-5-0-nopb/ldo-fixed-5v-800ma-sot-223-4/dp/3007499?st=LM1117IMPX-</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/aker/ca-16-000-18-3050-x/crystal-hc49-us-tht-16-000mhz/dp/1538746</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/mcm/ph1-40-ua/break-away-2-54mm-40-pin-strip/dp/2802331?st=pin%20header</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/panasonic/evqpjj04t/commutateur-6-0x3-5mm-2-4n-marron/dp/2079491?st=Commutateur%20tactile%20PANAsonic</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/microchip/mcp2515-i-so/controleur-can-spi-soic18/dp/1292239?st=mcp2515</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/amp-te-connectivity/31818/prolongateur-solistrand-pq100/dp/2139108?st=31818</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/amp-te-connectivity/321198/terminal-butt-splice-26-22awg/dp/2452544?st=Prolongateur,%20Série%20SOLISTRAND</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/te-connectivity/3-1447221-4/contact-femelle-20awg-crimp/dp/2448173?ost=2448173&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/amp-te-connectivity/3-1447221-5/s-s-conn-rec-contact-assembly/dp/3218029?ost=3218029&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/transcend/ts4gusdhc10/carte-micro-sdhc-4gb-classe-10/dp/2290243?ost=2290243&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/weller/lt-s/panne-lts-0-4mm/dp/3804525?ost=3804525&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/weller/lt-1s/panne-pour-wsp80/dp/971030?ost=971030&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/raychem-te-connectivity/rhw-12-3-1200-adh-0/heat-shrink-tubing-12mm-1-2m-black/dp/2449197?ost=2449197&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/raychem-te-connectivity/htat-16-4-0-stk/gaine-thermo-tube-4-1-16mm-noir/dp/2798037?ost=2798037&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/fixations-pour-serre-cables/1260337/?relevancy-data=636F3D3126696E3D4931384E525353746F636B4E756D626572266C753D656E266D6D3D6D61746368616C6C26706D3D5E2828282872737C5253295B205D3F293F285C647B337D5B5C2D5C735D3F5C647B332C347D5B705061415D3F29297C283235285C647B387D7C5C647B317D5C2D5C647B377D2929292426706F3D3126736E3D592673723D2673743D52535F53544F434B5F4E554D4245522677633D4E4F4E45267573743D3132362D30333337267374613D3132363033333726&amp;searchHistory=%7B%22enabled%22%3Atrue%7D</t>
+  </si>
+  <si>
+    <t>MUSBRB55130 - Connecteur blindé USB, Mini USB Type B, USB 2.0, Embase, 5 positions, Montage sur panneau, IP67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSBRB55130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPHENOL ICC </t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/amphenol-commercial-products/musbrb55130/mini-usb-etanche-2-0-type-b-rcpt/dp/2708983?ost=2708983&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/panasonic/erj6rbd4701v/res-couche-epaisse-4-7k-0-5-0/dp/2380397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERJ6RBD4701V </t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/tdk/c0603x6s1c104k030bc/condensateur-0-1-f-16v-10-x6s/dp/2528750</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS, 0.1 µF, 16 V, 0201 [0603 Metric], ± 10%, X6S, C Series TDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603X6S1C104K030BC </t>
+  </si>
+  <si>
+    <t>1 de 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+3-1447221-5</t>
+  </si>
+  <si>
+    <t>RHW-12/3-1200/ADH-0</t>
+  </si>
+  <si>
+    <t>Prix HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126-0337 </t>
+  </si>
+  <si>
+    <t>HellermannTyton</t>
+  </si>
+  <si>
+    <t>Rilsan</t>
+  </si>
+  <si>
+    <t>Pro Power</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/pro-power/0301cv-100w/serre-cable-100x2-50mm-etanche/dp/1366999?st=rislan</t>
+  </si>
+  <si>
+    <t>Serre-câble, Résistant aux intempéries, Nylon 6.6 (Polyamide 6.6), Noir, 100 mm, 2.5 mm, 25 mm par paquet de 100</t>
+  </si>
+  <si>
+    <t>Serre-câble, Intérieur cranté, Nylon 4.6 (Polyamide 4.6), Naturel, 390 mm, 4.6 mm, 110 mm, 50 lb</t>
+  </si>
+  <si>
+    <t>114-05779</t>
+  </si>
+  <si>
+    <t>Hellermanntyton</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/hellermanntyton/t50l-rn3p/collier-serrage-390x4-7mm-pqt100/dp/1296230?ost=1296230&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP002054 </t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/cavaliers-et-shunts/7188554/</t>
+  </si>
+  <si>
+    <t>718-8554</t>
+  </si>
+  <si>
+    <t>1-880584-2</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-409]General"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000\ &quot;€&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2D8AD8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2C577E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,7 +835,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -106,22 +872,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -131,11 +946,332 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="#,##0.0000\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -260,131 +1396,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,32 +1411,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
-  <autoFilter ref="A1:G27"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Composant/Pièce" dataDxfId="17"/>
-    <tableColumn id="2" name="Description" dataDxfId="16"/>
-    <tableColumn id="3" name="Code commande" dataDxfId="15"/>
-    <tableColumn id="4" name="Fabricant" dataDxfId="14"/>
-    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="13"/>
-    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="12"/>
-    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:H27"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Composant/Pièce" dataDxfId="18"/>
+    <tableColumn id="2" name="Description" dataDxfId="17"/>
+    <tableColumn id="3" name="Code commande" dataDxfId="16"/>
+    <tableColumn id="4" name="Fabricant" dataDxfId="15"/>
+    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="14"/>
+    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="13"/>
+    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="12"/>
+    <tableColumn id="8" name="Lien" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:G27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G27"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Composant/Pièce" dataDxfId="6"/>
-    <tableColumn id="2" name="Description" dataDxfId="5"/>
-    <tableColumn id="3" name="Code commande" dataDxfId="4"/>
-    <tableColumn id="4" name="Fabricant" dataDxfId="3"/>
-    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="2"/>
-    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="1"/>
-    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:I50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Excel Built-in Normal">
+  <autoFilter ref="A1:I50"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Composant/Pièce" dataDxfId="9"/>
+    <tableColumn id="2" name="Description" dataDxfId="8" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="3" name="Code commande" dataDxfId="7" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="4" name="Fabricant" dataDxfId="6" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="5" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="4" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="1" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="8" name="Lien" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="11" name="Prix HT" dataDxfId="0" dataCellStyle="Excel Built-in Normal">
+      <calculatedColumnFormula>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -697,10 +1713,10 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
@@ -709,41 +1725,59 @@
     <col min="5" max="5" width="23.21875" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="16" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="100.77734375" customWidth="1"/>
+    <col min="9" max="16" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
+      <c r="H1" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="7">
+        <v>15</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -753,15 +1787,31 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
+    <row r="3" spans="1:16" ht="86.4">
+      <c r="A3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>79.5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -771,15 +1821,19 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
+    <row r="4" spans="1:16" ht="43.2">
+      <c r="A4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -789,15 +1843,29 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
+    <row r="5" spans="1:16" ht="57.6">
+      <c r="A5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2802331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -807,14 +1875,14 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -825,14 +1893,14 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -843,14 +1911,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -861,14 +1929,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -879,14 +1947,14 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -897,14 +1965,14 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -915,14 +1983,14 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -933,14 +2001,14 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -951,14 +2019,14 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -969,14 +2037,14 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -987,14 +2055,14 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1005,14 +2073,14 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1023,14 +2091,14 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1041,14 +2109,14 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1059,14 +2127,14 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1077,14 +2145,14 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1095,14 +2163,14 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1113,14 +2181,14 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1131,14 +2199,14 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:16">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1149,14 +2217,14 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
+    <row r="25" spans="1:16">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1167,14 +2235,14 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1185,15 +2253,15 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1204,290 +2272,1572 @@
       <c r="P27" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="H1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9333819</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
+        <v>20</v>
+      </c>
+      <c r="G2" s="20">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="11">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>9333037</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20</v>
+      </c>
+      <c r="G3" s="20">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9333711</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="G4" s="20">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.19199999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9332812</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2380397</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.111</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="158.4">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2447711</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="20">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="158.4">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2861913</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7">
+        <v>80</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="158.4">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2447563</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="144">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2447584</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="20">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="158.4">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2447551</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.8">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1759196</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7">
+        <v>30</v>
+      </c>
+      <c r="G12" s="20">
+        <v>5.21E-2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.5629999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="86.4">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1658874</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.111</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="86.4">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2528750</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.11</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100.8">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1414663</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+      <c r="G15" s="20">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="100.8">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2991367</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.6900000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="86.4">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2525138</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="100.8">
+      <c r="A18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1759424</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.3900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="86.4">
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2491176</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="7">
+        <v>30</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.249</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="72">
+      <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1868418</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>3.0149999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="72">
+      <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2778020</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="7">
+        <v>8</v>
+      </c>
+      <c r="G21" s="20">
+        <v>3.05</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="72">
+      <c r="A22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2675047</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="20">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="144">
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9731148</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="7">
+        <v>15</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>3.5100000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72">
+      <c r="A24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1654528</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7">
+        <v>15</v>
+      </c>
+      <c r="G24" s="20">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.4835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="158.4">
+      <c r="A25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="7">
+        <v>9731156</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="158.4">
+      <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1462834</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0.121</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="144">
+      <c r="A27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="7">
+        <v>9731172</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="158.4">
+      <c r="A28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1756789</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="144">
+      <c r="A29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2112410</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>2.0100000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="144">
+      <c r="A30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3221737</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.1600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="129.6">
+      <c r="A31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2888923</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>3.9550000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="129.6">
+      <c r="A32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3048945</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="7">
+        <v>5</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>1.4749999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="144">
+      <c r="A33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2708983</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7">
+        <v>4</v>
+      </c>
+      <c r="G33" s="22">
+        <v>8.27</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>33.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="115.2">
+      <c r="A34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1081476</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0.121</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="86.4">
+      <c r="A35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2454496</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>2.3250000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="100.8">
+      <c r="A36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="7">
+        <v>3007499</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="7">
+        <v>6</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>5.8019999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="57.6">
+      <c r="A37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1538746</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="7">
+        <v>6</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0.871</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>5.226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="86.4">
+      <c r="A38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2079491</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="7">
+        <v>10</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="72">
+      <c r="A39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1292239</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6</v>
+      </c>
+      <c r="G39" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="86.4">
+      <c r="A40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2139108</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="7">
+        <v>31818</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2</v>
+      </c>
+      <c r="G40" s="20">
+        <v>12.05</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="100.8">
+      <c r="A41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2452544</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="7">
+        <v>321198</v>
+      </c>
+      <c r="F41" s="7">
+        <v>200</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="129.6">
+      <c r="A42" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2448173</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="7">
+        <v>20</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="129.6">
+      <c r="A43" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7">
+        <v>3218029</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="7">
+        <v>50</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>27.950000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="100.8">
+      <c r="A44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2290243</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20">
+        <v>13.45</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="100.8">
+      <c r="A45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3804525</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2</v>
+      </c>
+      <c r="G45" s="20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="100.8">
+      <c r="A46" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="7">
+        <v>971030</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="20">
+        <v>5</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="144">
+      <c r="A47" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7">
+        <v>2449197</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="7">
+        <v>2</v>
+      </c>
+      <c r="G47" s="20">
+        <v>12.47</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47" s="10">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="144">
+      <c r="A48" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2798037</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="7">
+        <v>2</v>
+      </c>
+      <c r="G48" s="20">
+        <v>17.38</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" s="12">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>34.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="86.4">
+      <c r="A49" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1269011</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="25">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="I49" s="27">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="129.6">
+      <c r="A50" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1296230</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="29">
+        <v>29.89</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="I50" s="31">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>29.89</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="D16" r:id="rId5"/>
+    <hyperlink ref="D17" r:id="rId6"/>
+    <hyperlink ref="D19" r:id="rId7"/>
+    <hyperlink ref="D20" r:id="rId8"/>
+    <hyperlink ref="D21" r:id="rId9"/>
+    <hyperlink ref="D22" r:id="rId10"/>
+    <hyperlink ref="D23" r:id="rId11"/>
+    <hyperlink ref="D24" r:id="rId12"/>
+    <hyperlink ref="D25" r:id="rId13"/>
+    <hyperlink ref="D26" r:id="rId14"/>
+    <hyperlink ref="D27" r:id="rId15"/>
+    <hyperlink ref="D28" r:id="rId16"/>
+    <hyperlink ref="D29" r:id="rId17"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="D31" r:id="rId19"/>
+    <hyperlink ref="D32" r:id="rId20"/>
+    <hyperlink ref="D34" r:id="rId21"/>
+    <hyperlink ref="D35" r:id="rId22"/>
+    <hyperlink ref="D36" r:id="rId23"/>
+    <hyperlink ref="D37" r:id="rId24"/>
+    <hyperlink ref="D38" r:id="rId25"/>
+    <hyperlink ref="D39" r:id="rId26"/>
+    <hyperlink ref="D40" r:id="rId27"/>
+    <hyperlink ref="D41" r:id="rId28"/>
+    <hyperlink ref="D42" r:id="rId29"/>
+    <hyperlink ref="D44" r:id="rId30"/>
+    <hyperlink ref="D45" r:id="rId31"/>
+    <hyperlink ref="D46" r:id="rId32"/>
+    <hyperlink ref="D48" r:id="rId33"/>
+    <hyperlink ref="H40" r:id="rId34"/>
+    <hyperlink ref="H41" r:id="rId35"/>
+    <hyperlink ref="D33" r:id="rId36" display="https://fr.farnell.com/b/amphenol-icc"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/EL_Electrical/Commande-janvier.xlsx
+++ b/EL_Electrical/Commande-janvier.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobau\Documents\EPSA\Ressources2020\EL_Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RS Component" sheetId="1" r:id="rId1"/>
     <sheet name="Farnell" sheetId="2" r:id="rId2"/>
+    <sheet name="Mouser" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="292">
   <si>
     <t>Description</t>
   </si>
@@ -762,18 +763,178 @@
   <si>
     <t>TE Connectivity</t>
   </si>
+  <si>
+    <t>Référence</t>
+  </si>
+  <si>
+    <t>Dénomination</t>
+  </si>
+  <si>
+    <t>Description (si nécessaire)</t>
+  </si>
+  <si>
+    <t>Prix TTC</t>
+  </si>
+  <si>
+    <t>Réduction</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Prix total HT</t>
+  </si>
+  <si>
+    <t>Prix total TTC</t>
+  </si>
+  <si>
+    <t>576-PDM71001ZXM</t>
+  </si>
+  <si>
+    <t>829-12010300</t>
+  </si>
+  <si>
+    <t>Cavity plug</t>
+  </si>
+  <si>
+    <t>829-12084201</t>
+  </si>
+  <si>
+    <t>Connecteur 0.35-0.50 mm2</t>
+  </si>
+  <si>
+    <t>20-22AWG</t>
+  </si>
+  <si>
+    <t>829-12077411</t>
+  </si>
+  <si>
+    <t>Connecteur 0.50-1.00 mm2</t>
+  </si>
+  <si>
+    <t>17-20AWG</t>
+  </si>
+  <si>
+    <t>829-15363933</t>
+  </si>
+  <si>
+    <t>Connecteur 1.00-2.00 mm2</t>
+  </si>
+  <si>
+    <t>14-17AWG</t>
+  </si>
+  <si>
+    <t>829-12129493</t>
+  </si>
+  <si>
+    <t>Connecteur 2.00-3.00 mm2</t>
+  </si>
+  <si>
+    <t>12-14AWG</t>
+  </si>
+  <si>
+    <t>829-12077413</t>
+  </si>
+  <si>
+    <t>Connecteur 5.00 mm2</t>
+  </si>
+  <si>
+    <t>8AWG</t>
+  </si>
+  <si>
+    <t>829-15324983</t>
+  </si>
+  <si>
+    <t>CABLE SEAL DARK RED</t>
+  </si>
+  <si>
+    <t>829-15324985</t>
+  </si>
+  <si>
+    <t>CABLE SEAL PURPLE</t>
+  </si>
+  <si>
+    <t>829-15324982</t>
+  </si>
+  <si>
+    <t>CBL SEAL GREEN</t>
+  </si>
+  <si>
+    <t>829-15324980</t>
+  </si>
+  <si>
+    <t>CBL SEAL GRAY</t>
+  </si>
+  <si>
+    <t>829-15324981</t>
+  </si>
+  <si>
+    <t>CBL SEAL BLUE</t>
+  </si>
+  <si>
+    <t>893-3011ASR112VDC</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>504-BP/FB6-ATM</t>
+  </si>
+  <si>
+    <t>Boîte à fusibles arrière</t>
+  </si>
+  <si>
+    <t>787-3852</t>
+  </si>
+  <si>
+    <t>facade DB-9</t>
+  </si>
+  <si>
+    <t>Connecteur Sub-D, 9 Contacts, Femelle, Montage sur câble, Standard</t>
+  </si>
+  <si>
+    <t>MHDB9SS</t>
+  </si>
+  <si>
+    <t>MH Connector</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/connecteurs-sub-d-a-souder/7873852/?relevancy-data=636F3D3126696E3D4931384E525353746F636B4E756D626572266C753D656E266D6D3D6D61746368616C6C26706D3D5E2828282872737C5253295B205D3F293F285C647B337D5B5C2D5C735D3F5C647B332C347D5B705061415D3F29297C283235285C647B387D7C5C647B317D5C2D5C647B377D2929292426706F3D3126736E3D592673723D2673743D52535F53544F434B5F4E554D4245522677633D4E4F4E45267573743D3738372D33383532267374613D3738373338353226&amp;searchHistory=%7B"enabled"%3Atrue%7D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>523-17HD015PAM030</t>
+  </si>
+  <si>
+    <t>Connecteur D sub 15 HD</t>
+  </si>
+  <si>
+    <t>Back shell sub D 15</t>
+  </si>
+  <si>
+    <t>981-009-130R121</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000\ &quot;€&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,16 +987,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -927,6 +1109,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -934,7 +1174,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -991,20 +1231,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,7 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,11 +1272,54 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1045,7 +1328,24 @@
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1071,8 +1371,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1089,24 +1388,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0000\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1271,6 +1554,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1411,17 +1711,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:H27"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Composant/Pièce" dataDxfId="18"/>
-    <tableColumn id="2" name="Description" dataDxfId="17"/>
-    <tableColumn id="3" name="Code commande" dataDxfId="16"/>
-    <tableColumn id="4" name="Fabricant" dataDxfId="15"/>
-    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="14"/>
-    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="13"/>
-    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="12"/>
-    <tableColumn id="8" name="Lien" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:I27"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Composant/Pièce" dataDxfId="19"/>
+    <tableColumn id="2" name="Description" dataDxfId="18"/>
+    <tableColumn id="3" name="Code commande" dataDxfId="17"/>
+    <tableColumn id="4" name="Fabricant" dataDxfId="16"/>
+    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="15"/>
+    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="14"/>
+    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="13"/>
+    <tableColumn id="8" name="Lien" dataDxfId="12"/>
+    <tableColumn id="9" name="Colonne1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1437,9 +1738,9 @@
     <tableColumn id="4" name="Fabricant" dataDxfId="6" dataCellStyle="Excel Built-in Normal"/>
     <tableColumn id="5" name="Réf. Fabricant" dataDxfId="5" dataCellStyle="Excel Built-in Normal"/>
     <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="4" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="1" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="8" name="Lien" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="11" name="Prix HT" dataDxfId="0" dataCellStyle="Excel Built-in Normal">
+    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="8" name="Lien" dataDxfId="2" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="11" name="Prix HT" dataDxfId="1" dataCellStyle="Excel Built-in Normal">
       <calculatedColumnFormula>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1713,23 +2014,23 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="100.77734375" customWidth="1"/>
-    <col min="9" max="16" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="100.7109375" customWidth="1"/>
+    <col min="9" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1754,8 +2055,11 @@
       <c r="H1" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="I1" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -1778,7 +2082,7 @@
       <c r="H2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1787,7 +2091,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="86.4">
+    <row r="3" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>160</v>
       </c>
@@ -1812,7 +2116,7 @@
       <c r="H3" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1821,7 +2125,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="43.2">
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>114</v>
       </c>
@@ -1834,7 +2138,7 @@
       <c r="H4" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1843,7 +2147,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="57.6">
+    <row r="5" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>124</v>
       </c>
@@ -1866,7 +2170,7 @@
       <c r="H5" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1875,16 +2179,34 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1.45</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1893,7 +2215,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1902,7 +2224,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="36"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1911,7 +2233,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1920,7 +2242,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="36"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1929,7 +2251,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1938,7 +2260,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="36"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1947,7 +2269,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1956,7 +2278,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="36"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1965,7 +2287,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1974,7 +2296,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="36"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1983,7 +2305,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1992,7 +2314,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="36"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2001,7 +2323,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2010,7 +2332,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="36"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2019,7 +2341,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2028,7 +2350,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="36"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2037,7 +2359,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2046,7 +2368,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="36"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2055,7 +2377,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2064,7 +2386,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="36"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2073,7 +2395,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2082,7 +2404,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="36"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2091,7 +2413,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2100,7 +2422,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="36"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2109,7 +2431,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2118,7 +2440,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="36"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2127,7 +2449,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2136,7 +2458,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="36"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2145,7 +2467,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2154,7 +2476,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="36"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2163,7 +2485,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2172,7 +2494,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="36"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2181,7 +2503,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2190,7 +2512,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="36"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2199,7 +2521,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2208,7 +2530,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="36"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2217,7 +2539,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2226,7 +2548,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="36"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2235,7 +2557,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2244,7 +2566,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="36"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2253,7 +2575,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2262,7 +2584,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2276,6 +2598,7 @@
     <hyperlink ref="H4" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2288,23 +2611,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2333,7 +2656,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72">
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2686,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2393,7 +2716,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -2423,7 +2746,7 @@
         <v>0.19199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2453,7 +2776,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2483,7 +2806,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="158.4">
+    <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2836,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="158.4">
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2543,7 +2866,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="158.4">
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -2573,7 +2896,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="144">
+    <row r="10" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -2603,7 +2926,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="158.4">
+    <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -2633,7 +2956,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="100.8">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -2663,7 +2986,7 @@
         <v>1.5629999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="86.4">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
@@ -2693,7 +3016,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="86.4">
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
@@ -2723,7 +3046,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="100.8">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -2753,7 +3076,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="100.8">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>51</v>
       </c>
@@ -2783,7 +3106,7 @@
         <v>1.6900000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="86.4">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -2813,7 +3136,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="100.8">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>58</v>
       </c>
@@ -2843,7 +3166,7 @@
         <v>1.3900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="86.4">
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>61</v>
       </c>
@@ -2873,7 +3196,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="72">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
@@ -2903,7 +3226,7 @@
         <v>3.0149999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
@@ -2933,7 +3256,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="72">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>71</v>
       </c>
@@ -2963,7 +3286,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="144">
+    <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
@@ -2993,7 +3316,7 @@
         <v>3.5100000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="72">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>78</v>
       </c>
@@ -3023,7 +3346,7 @@
         <v>1.4835</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="158.4">
+    <row r="25" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>81</v>
       </c>
@@ -3053,7 +3376,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="158.4">
+    <row r="26" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>84</v>
       </c>
@@ -3083,7 +3406,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="144">
+    <row r="27" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>87</v>
       </c>
@@ -3113,7 +3436,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="158.4">
+    <row r="28" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>90</v>
       </c>
@@ -3143,7 +3466,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="144">
+    <row r="29" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>93</v>
       </c>
@@ -3173,7 +3496,7 @@
         <v>2.0100000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="144">
+    <row r="30" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
@@ -3203,7 +3526,7 @@
         <v>1.1600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="129.6">
+    <row r="31" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>99</v>
       </c>
@@ -3233,7 +3556,7 @@
         <v>3.9550000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="129.6">
+    <row r="32" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>102</v>
       </c>
@@ -3263,7 +3586,7 @@
         <v>1.4749999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="144">
+    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -3293,7 +3616,7 @@
         <v>33.08</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="115.2">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>106</v>
       </c>
@@ -3323,7 +3646,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="86.4">
+    <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>110</v>
       </c>
@@ -3353,7 +3676,7 @@
         <v>2.3250000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="100.8">
+    <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>116</v>
       </c>
@@ -3383,7 +3706,7 @@
         <v>5.8019999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="57.6">
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -3413,7 +3736,7 @@
         <v>5.226</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="86.4">
+    <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>128</v>
       </c>
@@ -3443,7 +3766,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="72">
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>131</v>
       </c>
@@ -3473,7 +3796,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="86.4">
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>135</v>
       </c>
@@ -3503,7 +3826,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="100.8">
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>138</v>
       </c>
@@ -3533,7 +3856,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="129.6">
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>140</v>
       </c>
@@ -3563,7 +3886,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="129.6">
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>143</v>
       </c>
@@ -3589,7 +3912,7 @@
         <v>27.950000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="100.8">
+    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>144</v>
       </c>
@@ -3619,7 +3942,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="100.8">
+    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>148</v>
       </c>
@@ -3649,7 +3972,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="100.8">
+    <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -3679,7 +4002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="144">
+    <row r="47" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -3705,7 +4028,7 @@
         <v>24.94</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="144">
+    <row r="48" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>156</v>
       </c>
@@ -3735,7 +4058,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="86.4">
+    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>226</v>
       </c>
@@ -3765,7 +4088,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="129.6">
+    <row r="50" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>226</v>
       </c>
@@ -3840,4 +4163,546 @@
     <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="44">
+        <v>21.23</v>
+      </c>
+      <c r="E2" s="44">
+        <f>1.2*D2</f>
+        <v>25.475999999999999</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="42">
+        <v>1</v>
+      </c>
+      <c r="H2" s="44">
+        <f>D2*G2</f>
+        <v>21.23</v>
+      </c>
+      <c r="I2" s="44">
+        <f>E2*G2</f>
+        <v>25.475999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="44">
+        <v>0.19</v>
+      </c>
+      <c r="E3" s="44">
+        <f t="shared" ref="E3:E17" si="0">1.2*D3</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="42">
+        <v>30</v>
+      </c>
+      <c r="H3" s="44">
+        <f t="shared" ref="H3:H15" si="1">D3*G3</f>
+        <v>5.7</v>
+      </c>
+      <c r="I3" s="44">
+        <f t="shared" ref="I3:I15" si="2">E3*G3</f>
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="E4" s="44">
+        <f t="shared" si="0"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="42">
+        <v>25</v>
+      </c>
+      <c r="H4" s="44">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="I4" s="44">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.39</v>
+      </c>
+      <c r="E5" s="44">
+        <f t="shared" si="0"/>
+        <v>0.46799999999999997</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42">
+        <v>25</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+      <c r="I5" s="44">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" si="0"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="42">
+        <v>25</v>
+      </c>
+      <c r="H6" s="44">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="I6" s="44">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.24</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="0"/>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42">
+        <v>25</v>
+      </c>
+      <c r="H7" s="44">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="44">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.23</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" si="0"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42">
+        <v>25</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="I8" s="44">
+        <f t="shared" si="2"/>
+        <v>6.9</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="44">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="42">
+        <v>25</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="I9" s="44">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44">
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="44">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="42">
+        <v>25</v>
+      </c>
+      <c r="H10" s="44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="44">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="44">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="42">
+        <v>25</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="44">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="42">
+        <v>25</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="44">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="42">
+        <v>25</v>
+      </c>
+      <c r="H13" s="44">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="I13" s="44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="44">
+        <v>3.19</v>
+      </c>
+      <c r="E14" s="44">
+        <f t="shared" si="0"/>
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42">
+        <v>4</v>
+      </c>
+      <c r="H14" s="44">
+        <f t="shared" si="1"/>
+        <v>12.76</v>
+      </c>
+      <c r="I14" s="44">
+        <f t="shared" si="2"/>
+        <v>15.311999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="44">
+        <v>46.31</v>
+      </c>
+      <c r="E15" s="44">
+        <f t="shared" si="0"/>
+        <v>55.572000000000003</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42">
+        <v>1</v>
+      </c>
+      <c r="H15" s="44">
+        <f t="shared" si="1"/>
+        <v>46.31</v>
+      </c>
+      <c r="I15" s="44">
+        <f t="shared" si="2"/>
+        <v>55.572000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E16" s="44">
+        <f t="shared" si="0"/>
+        <v>5.28</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42">
+        <v>1</v>
+      </c>
+      <c r="H16" s="44">
+        <f t="shared" ref="H16:H17" si="3">D16*G16</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I16" s="44">
+        <f t="shared" ref="I16:I17" si="4">E16*G16</f>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="44">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="0"/>
+        <v>5.8319999999999999</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42">
+        <v>1</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="3"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I17" s="44">
+        <f t="shared" si="4"/>
+        <v>5.8319999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48">
+        <f>SUM(I2:I17)</f>
+        <v>168.61199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D19:H20"/>
+    <mergeCell ref="I19:I20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EL_Electrical/Commande-janvier.xlsx
+++ b/EL_Electrical/Commande-janvier.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="RS Component" sheetId="1" r:id="rId1"/>
-    <sheet name="Farnell" sheetId="2" r:id="rId2"/>
+    <sheet name="Farnell" sheetId="4" r:id="rId2"/>
+    <sheet name="reverchon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="262">
   <si>
     <t>Description</t>
   </si>
@@ -423,12 +424,6 @@
     <t>PH1-40-UA -  Break-away 2.54mm 40-pin strip male header</t>
   </si>
   <si>
-    <t>MCM</t>
-  </si>
-  <si>
-    <t>PH1-40-UA</t>
-  </si>
-  <si>
     <t>Switch-pushbutton, package TACT_PANA-EVQ</t>
   </si>
   <si>
@@ -639,9 +634,6 @@
     <t>https://fr.farnell.com/aker/ca-16-000-18-3050-x/crystal-hc49-us-tht-16-000mhz/dp/1538746</t>
   </si>
   <si>
-    <t>https://fr.farnell.com/mcm/ph1-40-ua/break-away-2-54mm-40-pin-strip/dp/2802331?st=pin%20header</t>
-  </si>
-  <si>
     <t>https://fr.farnell.com/panasonic/evqpjj04t/commutateur-6-0x3-5mm-2-4n-marron/dp/2079491?st=Commutateur%20tactile%20PANAsonic</t>
   </si>
   <si>
@@ -703,9 +695,6 @@
   </si>
   <si>
     <t xml:space="preserve">C0603X6S1C104K030BC </t>
-  </si>
-  <si>
-    <t>1 de 40</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -761,6 +750,87 @@
   </si>
   <si>
     <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batterie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batterie Super B </t>
+  </si>
+  <si>
+    <t>Reverchon</t>
+  </si>
+  <si>
+    <t>RS1SB7800</t>
+  </si>
+  <si>
+    <t>https://www.lemagasindespilotes.fr/le-magasin-des-pilotes/catalogue/detail-article.html&amp;productid=395</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/microrupteurs/2193794/</t>
+  </si>
+  <si>
+    <t>219-3794</t>
+  </si>
+  <si>
+    <t>Crouzet</t>
+  </si>
+  <si>
+    <t>Microrupteur Crouzet Bouton</t>
+  </si>
+  <si>
+    <t>Microrupteur</t>
+  </si>
+  <si>
+    <t>annulé</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Boite</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/bopla/02210000/revetement-plastique-euromas/dp/1217454</t>
+  </si>
+  <si>
+    <t>Bopla</t>
+  </si>
+  <si>
+    <t>251-8632</t>
+  </si>
+  <si>
+    <t>RS PRO</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/embases-circuits-imprimes/2518632/</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/boitiers-pour-usage-general/9190395/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boite </t>
+  </si>
+  <si>
+    <t>Boite de carte arrière: 80x80x43mm</t>
+  </si>
+  <si>
+    <t>Boite de carte avant: 80x82x55mm, IP65</t>
+  </si>
+  <si>
+    <t>919-0395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC4S584F,LF(T </t>
+  </si>
+  <si>
+    <t>144-5204</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>porte inverseuse</t>
   </si>
 </sst>
 </file>
@@ -770,10 +840,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000\ &quot;€&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,16 +896,69 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -927,6 +1050,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -934,7 +1138,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -991,20 +1195,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,10 +1236,80 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,7 +1319,48 @@
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1071,8 +1386,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1089,24 +1403,8 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0000\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1271,6 +1569,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1411,37 +1726,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:H27"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Composant/Pièce" dataDxfId="18"/>
-    <tableColumn id="2" name="Description" dataDxfId="17"/>
-    <tableColumn id="3" name="Code commande" dataDxfId="16"/>
-    <tableColumn id="4" name="Fabricant" dataDxfId="15"/>
-    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="14"/>
-    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="13"/>
-    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="12"/>
-    <tableColumn id="8" name="Lien" dataDxfId="2"/>
+    <tableColumn id="1" name="Composant/Pièce" dataDxfId="22"/>
+    <tableColumn id="2" name="Description" dataDxfId="21"/>
+    <tableColumn id="3" name="Code commande" dataDxfId="20"/>
+    <tableColumn id="4" name="Fabricant" dataDxfId="19"/>
+    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="18"/>
+    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="17"/>
+    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="16"/>
+    <tableColumn id="8" name="Lien" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:I50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Excel Built-in Normal">
-  <autoFilter ref="A1:I50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:I51" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" dataCellStyle="Excel Built-in Normal">
+  <autoFilter ref="A1:I51"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Composant/Pièce" dataDxfId="9"/>
-    <tableColumn id="2" name="Description" dataDxfId="8" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="3" name="Code commande" dataDxfId="7" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="4" name="Fabricant" dataDxfId="6" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="5" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="4" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="1" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="8" name="Lien" dataDxfId="3" dataCellStyle="Excel Built-in Normal"/>
-    <tableColumn id="11" name="Prix HT" dataDxfId="0" dataCellStyle="Excel Built-in Normal">
+    <tableColumn id="1" name="Composant/Pièce" dataDxfId="12"/>
+    <tableColumn id="2" name="Description" dataDxfId="11" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="3" name="Code commande" dataDxfId="10" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="4" name="Fabricant" dataDxfId="9" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="5" name="Réf. Fabricant" dataDxfId="8" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="6" name="Qté unitaire/mètre" dataDxfId="7" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="6" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="8" name="Lien" dataDxfId="5" dataCellStyle="Excel Built-in Normal"/>
+    <tableColumn id="11" name="Prix HT" dataDxfId="4" dataCellStyle="Excel Built-in Normal">
       <calculatedColumnFormula>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:I3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:I3"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Composant/Pièce"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Code commande"/>
+    <tableColumn id="4" name="Fabricant"/>
+    <tableColumn id="5" name="Réf. Fabricant"/>
+    <tableColumn id="6" name="Qté unitaire/mètre"/>
+    <tableColumn id="7" name="Prix unitaire HT" dataDxfId="0">
+      <calculatedColumnFormula>479/1.2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Lien"/>
+    <tableColumn id="9" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1712,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1721,7 +2056,7 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.21875" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
@@ -1752,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1761,13 +2096,13 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F2" s="7">
         <v>15</v>
@@ -1776,7 +2111,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1789,19 +2124,19 @@
     </row>
     <row r="3" spans="1:16" ht="86.4">
       <c r="A3" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -1810,7 +2145,7 @@
         <v>79.5</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1825,14 +2160,26 @@
       <c r="A4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="7">
+        <v>30</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.17599999999999999</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1850,21 +2197,21 @@
       <c r="B5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="7">
-        <v>2802331</v>
+      <c r="C5" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="21"/>
+        <v>251</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1.1890000000000001</v>
+      </c>
       <c r="H5" s="23" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1875,15 +2222,31 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="2"/>
+    <row r="6" spans="1:16" ht="41.4">
+      <c r="A6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="51">
+        <v>83186003</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47">
+        <v>13.91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1893,15 +2256,29 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:16" ht="43.2">
+      <c r="A7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35">
+        <v>4.45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1918,7 +2295,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1936,7 +2313,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="36"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1954,7 +2331,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1972,7 +2349,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1990,7 +2367,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="36"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2008,7 +2385,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2026,7 +2403,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="36"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2044,7 +2421,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2062,7 +2439,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2080,7 +2457,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="36"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2098,7 +2475,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2116,7 +2493,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2134,7 +2511,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="36"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2152,7 +2529,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="36"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2170,7 +2547,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2188,7 +2565,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2206,7 +2583,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2224,7 +2601,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2242,7 +2619,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2274,10 +2651,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId2" display="MCM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
@@ -2286,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2297,7 +2674,7 @@
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.21875" customWidth="1"/>
     <col min="7" max="7" width="18.21875" customWidth="1"/>
@@ -2327,10 +2704,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72">
@@ -2356,7 +2733,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I2" s="11">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2386,7 +2763,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I3" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2416,7 +2793,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I4" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2446,7 +2823,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I5" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2467,7 +2844,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7">
         <v>10</v>
@@ -2476,7 +2853,7 @@
         <v>0.111</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I6" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2506,7 +2883,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I7" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2536,7 +2913,7 @@
         <v>1.35E-2</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I8" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2566,7 +2943,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I9" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2596,7 +2973,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I10" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2626,7 +3003,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I11" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2656,7 +3033,7 @@
         <v>5.21E-2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2686,7 +3063,7 @@
         <v>0.111</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I13" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2698,7 +3075,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="7">
         <v>2528750</v>
@@ -2707,7 +3084,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7">
         <v>20</v>
@@ -2716,7 +3093,7 @@
         <v>0.11</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I14" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2746,7 +3123,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I15" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2776,7 +3153,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I16" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2806,7 +3183,7 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I17" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2836,7 +3213,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I18" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2866,7 +3243,7 @@
         <v>0.249</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I19" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2896,7 +3273,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I20" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2926,7 +3303,7 @@
         <v>3.05</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I21" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2956,7 +3333,7 @@
         <v>8.0600000000000005E-2</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I22" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -2986,7 +3363,7 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I23" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3016,7 +3393,7 @@
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I24" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3046,7 +3423,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I25" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3076,7 +3453,7 @@
         <v>0.121</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I26" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3106,7 +3483,7 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I27" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3136,7 +3513,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I28" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3166,7 +3543,7 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I29" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3196,7 +3573,7 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I30" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3226,7 +3603,7 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I31" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3256,7 +3633,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I32" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3268,16 +3645,16 @@
         <v>105</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C33" s="7">
         <v>2708983</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F33" s="7">
         <v>4</v>
@@ -3286,7 +3663,7 @@
         <v>8.27</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I33" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3316,7 +3693,7 @@
         <v>0.121</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I34" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3346,7 +3723,7 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I35" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3376,7 +3753,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I36" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3406,7 +3783,7 @@
         <v>0.871</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I37" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3415,10 +3792,10 @@
     </row>
     <row r="38" spans="1:9" ht="86.4">
       <c r="A38" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" s="7">
         <v>2079491</v>
@@ -3427,7 +3804,7 @@
         <v>22</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38" s="7">
         <v>10</v>
@@ -3436,7 +3813,7 @@
         <v>0.37</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I38" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3445,19 +3822,19 @@
     </row>
     <row r="39" spans="1:9" ht="72">
       <c r="A39" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="7">
         <v>1292239</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F39" s="7">
         <v>6</v>
@@ -3466,7 +3843,7 @@
         <v>1.54</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I39" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3475,16 +3852,16 @@
     </row>
     <row r="40" spans="1:9" ht="86.4">
       <c r="A40" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" s="7">
         <v>2139108</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E40" s="7">
         <v>31818</v>
@@ -3496,7 +3873,7 @@
         <v>12.05</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I40" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3505,16 +3882,16 @@
     </row>
     <row r="41" spans="1:9" ht="100.8">
       <c r="A41" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="7">
         <v>2452544</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E41" s="7">
         <v>321198</v>
@@ -3526,7 +3903,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I41" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3535,10 +3912,10 @@
     </row>
     <row r="42" spans="1:9" ht="129.6">
       <c r="A42" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C42" s="7">
         <v>2448173</v>
@@ -3547,7 +3924,7 @@
         <v>28</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F42" s="7">
         <v>20</v>
@@ -3556,7 +3933,7 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I42" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3565,7 +3942,7 @@
     </row>
     <row r="43" spans="1:9" ht="129.6">
       <c r="A43" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7">
@@ -3573,7 +3950,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F43" s="7">
         <v>50</v>
@@ -3582,7 +3959,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I43" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3591,19 +3968,19 @@
     </row>
     <row r="44" spans="1:9" ht="100.8">
       <c r="A44" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="7">
         <v>2290243</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
@@ -3612,7 +3989,7 @@
         <v>13.45</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I44" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3621,19 +3998,19 @@
     </row>
     <row r="45" spans="1:9" ht="100.8">
       <c r="A45" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="7">
         <v>3804525</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F45" s="7">
         <v>2</v>
@@ -3642,7 +4019,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I45" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3651,19 +4028,19 @@
     </row>
     <row r="46" spans="1:9" ht="100.8">
       <c r="A46" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" s="7">
         <v>971030</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F46" s="7">
         <v>2</v>
@@ -3672,7 +4049,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I46" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3681,7 +4058,7 @@
     </row>
     <row r="47" spans="1:9" ht="144">
       <c r="A47" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7">
@@ -3689,7 +4066,7 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F47" s="7">
         <v>2</v>
@@ -3698,7 +4075,7 @@
         <v>12.47</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I47" s="10">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
@@ -3707,19 +4084,19 @@
     </row>
     <row r="48" spans="1:9" ht="144">
       <c r="A48" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" s="7">
         <v>2798037</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F48" s="7">
         <v>2</v>
@@ -3728,28 +4105,28 @@
         <v>17.38</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I48" s="12">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
         <v>34.76</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="86.4">
+    <row r="49" spans="1:13" ht="86.4">
       <c r="A49" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C49" s="10">
         <v>1269011</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F49" s="10">
         <v>1</v>
@@ -3758,28 +4135,28 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I49" s="27">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="129.6">
+    <row r="50" spans="1:13" ht="129.6">
       <c r="A50" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="C50" s="12">
         <v>1296230</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F50" s="12">
         <v>1</v>
@@ -3788,12 +4165,64 @@
         <v>29.89</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I50" s="31">
         <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
         <v>29.89</v>
       </c>
+    </row>
+    <row r="51" spans="1:13" ht="57.6">
+      <c r="A51" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1217454</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="12">
+        <v>2210000</v>
+      </c>
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
+      <c r="G51" s="55">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="31">
+        <f>Tableau13[[#This Row],[Qté unitaire/mètre]]*Tableau13[[#This Row],[Prix unitaire HT]]</f>
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="E63" s="58"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="59"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3833,11 +4262,108 @@
     <hyperlink ref="H40" r:id="rId34"/>
     <hyperlink ref="H41" r:id="rId35"/>
     <hyperlink ref="D33" r:id="rId36" display="https://fr.farnell.com/b/amphenol-icc"/>
+    <hyperlink ref="H51" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="8" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="100.8">
+      <c r="A2" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="37">
+        <v>1</v>
+      </c>
+      <c r="G2" s="39">
+        <f t="shared" ref="G2" si="0">479/1.2</f>
+        <v>399.16666666666669</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="41"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>